--- a/831MarketingAnalytics/Project/831MarketingProject/output/engagement_model_data_with_additional_features.xlsx
+++ b/831MarketingAnalytics/Project/831MarketingProject/output/engagement_model_data_with_additional_features.xlsx
@@ -10935,7 +10935,7 @@
         <v>3.6672</v>
       </c>
       <c r="C404" t="n">
-        <v>0.3664921465968582</v>
+        <v>1.366492146596858</v>
       </c>
       <c r="D404" t="n">
         <v>641</v>
@@ -10961,7 +10961,7 @@
         <v>3.6672</v>
       </c>
       <c r="C405" t="n">
-        <v>0.3664921465968582</v>
+        <v>1.366492146596858</v>
       </c>
       <c r="D405" t="n">
         <v>653</v>
@@ -10987,7 +10987,7 @@
         <v>3.6672</v>
       </c>
       <c r="C406" t="n">
-        <v>0.3664921465968582</v>
+        <v>1.366492146596858</v>
       </c>
       <c r="D406" t="n">
         <v>666</v>
@@ -11013,7 +11013,7 @@
         <v>3.6672</v>
       </c>
       <c r="C407" t="n">
-        <v>0.3664921465968582</v>
+        <v>1.366492146596858</v>
       </c>
       <c r="D407" t="n">
         <v>653</v>
@@ -11039,7 +11039,7 @@
         <v>3.6672</v>
       </c>
       <c r="C408" t="n">
-        <v>0.3664921465968582</v>
+        <v>1.366492146596858</v>
       </c>
       <c r="D408" t="n">
         <v>653</v>
@@ -11065,7 +11065,7 @@
         <v>3.6672</v>
       </c>
       <c r="C409" t="n">
-        <v>0.3664921465968582</v>
+        <v>1.366492146596858</v>
       </c>
       <c r="D409" t="n">
         <v>643</v>
@@ -11091,7 +11091,7 @@
         <v>3.6672</v>
       </c>
       <c r="C410" t="n">
-        <v>0.3664921465968582</v>
+        <v>1.366492146596858</v>
       </c>
       <c r="D410" t="n">
         <v>651</v>
@@ -11117,7 +11117,7 @@
         <v>3.6672</v>
       </c>
       <c r="C411" t="n">
-        <v>0.3664921465968582</v>
+        <v>1.366492146596858</v>
       </c>
       <c r="D411" t="n">
         <v>653</v>
@@ -11143,7 +11143,7 @@
         <v>3.6672</v>
       </c>
       <c r="C412" t="n">
-        <v>0.3664921465968582</v>
+        <v>1.366492146596858</v>
       </c>
       <c r="D412" t="n">
         <v>648</v>
@@ -11169,7 +11169,7 @@
         <v>3.6672</v>
       </c>
       <c r="C413" t="n">
-        <v>0.3664921465968582</v>
+        <v>1.366492146596858</v>
       </c>
       <c r="D413" t="n">
         <v>637</v>
@@ -11195,7 +11195,7 @@
         <v>3.6672</v>
       </c>
       <c r="C414" t="n">
-        <v>0.3664921465968582</v>
+        <v>1.366492146596858</v>
       </c>
       <c r="D414" t="n">
         <v>649</v>
@@ -11221,7 +11221,7 @@
         <v>3.6672</v>
       </c>
       <c r="C415" t="n">
-        <v>0.3664921465968582</v>
+        <v>1.366492146596858</v>
       </c>
       <c r="D415" t="n">
         <v>649</v>
@@ -11247,7 +11247,7 @@
         <v>3.6672</v>
       </c>
       <c r="C416" t="n">
-        <v>0.3664921465968582</v>
+        <v>1.366492146596858</v>
       </c>
       <c r="D416" t="n">
         <v>628</v>
@@ -11273,7 +11273,7 @@
         <v>3.6672</v>
       </c>
       <c r="C417" t="n">
-        <v>0.3664921465968582</v>
+        <v>1.366492146596858</v>
       </c>
       <c r="D417" t="n">
         <v>653</v>
@@ -11299,7 +11299,7 @@
         <v>3.6672</v>
       </c>
       <c r="C418" t="n">
-        <v>0.3664921465968582</v>
+        <v>1.366492146596858</v>
       </c>
       <c r="D418" t="n">
         <v>617</v>
@@ -11325,7 +11325,7 @@
         <v>3.6672</v>
       </c>
       <c r="C419" t="n">
-        <v>0.3664921465968582</v>
+        <v>1.366492146596858</v>
       </c>
       <c r="D419" t="n">
         <v>642</v>
@@ -11351,7 +11351,7 @@
         <v>3.6672</v>
       </c>
       <c r="C420" t="n">
-        <v>0.3664921465968582</v>
+        <v>1.366492146596858</v>
       </c>
       <c r="D420" t="n">
         <v>656</v>
@@ -11377,7 +11377,7 @@
         <v>3.6672</v>
       </c>
       <c r="C421" t="n">
-        <v>0.3664921465968582</v>
+        <v>1.366492146596858</v>
       </c>
       <c r="D421" t="n">
         <v>661</v>
@@ -22323,7 +22323,7 @@
         <v>3.4269</v>
       </c>
       <c r="C842" t="n">
-        <v>0.3668913595377745</v>
+        <v>1.366891359537775</v>
       </c>
       <c r="D842" t="n">
         <v>686</v>
@@ -22349,7 +22349,7 @@
         <v>3.4269</v>
       </c>
       <c r="C843" t="n">
-        <v>0.3668913595377745</v>
+        <v>1.366891359537775</v>
       </c>
       <c r="D843" t="n">
         <v>686</v>
@@ -22375,7 +22375,7 @@
         <v>3.4269</v>
       </c>
       <c r="C844" t="n">
-        <v>0.3668913595377745</v>
+        <v>1.366891359537775</v>
       </c>
       <c r="D844" t="n">
         <v>699</v>
@@ -22401,7 +22401,7 @@
         <v>3.4269</v>
       </c>
       <c r="C845" t="n">
-        <v>0.3668913595377745</v>
+        <v>1.366891359537775</v>
       </c>
       <c r="D845" t="n">
         <v>679</v>
@@ -22427,7 +22427,7 @@
         <v>3.4269</v>
       </c>
       <c r="C846" t="n">
-        <v>0.3668913595377745</v>
+        <v>1.366891359537775</v>
       </c>
       <c r="D846" t="n">
         <v>679</v>
@@ -22453,7 +22453,7 @@
         <v>3.4269</v>
       </c>
       <c r="C847" t="n">
-        <v>0.3668913595377745</v>
+        <v>1.366891359537775</v>
       </c>
       <c r="D847" t="n">
         <v>666</v>
@@ -22479,7 +22479,7 @@
         <v>3.4269</v>
       </c>
       <c r="C848" t="n">
-        <v>0.3668913595377745</v>
+        <v>1.366891359537775</v>
       </c>
       <c r="D848" t="n">
         <v>672</v>
@@ -22505,7 +22505,7 @@
         <v>3.4269</v>
       </c>
       <c r="C849" t="n">
-        <v>0.3668913595377745</v>
+        <v>1.366891359537775</v>
       </c>
       <c r="D849" t="n">
         <v>663</v>
@@ -22531,7 +22531,7 @@
         <v>3.4269</v>
       </c>
       <c r="C850" t="n">
-        <v>0.3668913595377745</v>
+        <v>1.366891359537775</v>
       </c>
       <c r="D850" t="n">
         <v>655</v>
@@ -22557,7 +22557,7 @@
         <v>3.4269</v>
       </c>
       <c r="C851" t="n">
-        <v>0.3668913595377745</v>
+        <v>1.366891359537775</v>
       </c>
       <c r="D851" t="n">
         <v>655</v>
@@ -22583,7 +22583,7 @@
         <v>3.4269</v>
       </c>
       <c r="C852" t="n">
-        <v>0.3668913595377745</v>
+        <v>1.366891359537775</v>
       </c>
       <c r="D852" t="n">
         <v>645</v>
@@ -22609,7 +22609,7 @@
         <v>3.4269</v>
       </c>
       <c r="C853" t="n">
-        <v>0.3668913595377745</v>
+        <v>1.366891359537775</v>
       </c>
       <c r="D853" t="n">
         <v>652</v>
@@ -22635,7 +22635,7 @@
         <v>3.4269</v>
       </c>
       <c r="C854" t="n">
-        <v>0.3668913595377745</v>
+        <v>1.366891359537775</v>
       </c>
       <c r="D854" t="n">
         <v>622</v>
@@ -22661,7 +22661,7 @@
         <v>3.4269</v>
       </c>
       <c r="C855" t="n">
-        <v>0.3668913595377745</v>
+        <v>1.366891359537775</v>
       </c>
       <c r="D855" t="n">
         <v>622</v>
@@ -22687,7 +22687,7 @@
         <v>3.4269</v>
       </c>
       <c r="C856" t="n">
-        <v>0.3668913595377745</v>
+        <v>1.366891359537775</v>
       </c>
       <c r="D856" t="n">
         <v>615</v>
@@ -22713,7 +22713,7 @@
         <v>3.4269</v>
       </c>
       <c r="C857" t="n">
-        <v>0.3668913595377745</v>
+        <v>1.366891359537775</v>
       </c>
       <c r="D857" t="n">
         <v>593</v>
@@ -29785,7 +29785,7 @@
         <v>9.1572</v>
       </c>
       <c r="C1129" t="n">
-        <v>0.3667059799938848</v>
+        <v>1.366705979993885</v>
       </c>
       <c r="D1129" t="n">
         <v>593</v>
@@ -29811,7 +29811,7 @@
         <v>9.1572</v>
       </c>
       <c r="C1130" t="n">
-        <v>0.3667059799938848</v>
+        <v>1.366705979993885</v>
       </c>
       <c r="D1130" t="n">
         <v>593</v>
@@ -29837,7 +29837,7 @@
         <v>9.1572</v>
       </c>
       <c r="C1131" t="n">
-        <v>0.3667059799938848</v>
+        <v>1.366705979993885</v>
       </c>
       <c r="D1131" t="n">
         <v>582</v>
@@ -29863,7 +29863,7 @@
         <v>9.1572</v>
       </c>
       <c r="C1132" t="n">
-        <v>0.3667059799938848</v>
+        <v>1.366705979993885</v>
       </c>
       <c r="D1132" t="n">
         <v>570</v>
@@ -29889,7 +29889,7 @@
         <v>9.1572</v>
       </c>
       <c r="C1133" t="n">
-        <v>0.3667059799938848</v>
+        <v>1.366705979993885</v>
       </c>
       <c r="D1133" t="n">
         <v>570</v>
@@ -29915,7 +29915,7 @@
         <v>9.1572</v>
       </c>
       <c r="C1134" t="n">
-        <v>0.3667059799938848</v>
+        <v>1.366705979993885</v>
       </c>
       <c r="D1134" t="n">
         <v>583</v>
@@ -29941,7 +29941,7 @@
         <v>9.1572</v>
       </c>
       <c r="C1135" t="n">
-        <v>0.3667059799938848</v>
+        <v>1.366705979993885</v>
       </c>
       <c r="D1135" t="n">
         <v>570</v>
@@ -29967,7 +29967,7 @@
         <v>9.1572</v>
       </c>
       <c r="C1136" t="n">
-        <v>0.3667059799938848</v>
+        <v>1.366705979993885</v>
       </c>
       <c r="D1136" t="n">
         <v>573</v>
@@ -29993,7 +29993,7 @@
         <v>9.1572</v>
       </c>
       <c r="C1137" t="n">
-        <v>0.3667059799938848</v>
+        <v>1.366705979993885</v>
       </c>
       <c r="D1137" t="n">
         <v>588</v>
@@ -30019,7 +30019,7 @@
         <v>9.1572</v>
       </c>
       <c r="C1138" t="n">
-        <v>0.3667059799938848</v>
+        <v>1.366705979993885</v>
       </c>
       <c r="D1138" t="n">
         <v>569</v>
@@ -30045,7 +30045,7 @@
         <v>9.1572</v>
       </c>
       <c r="C1139" t="n">
-        <v>0.3667059799938848</v>
+        <v>1.366705979993885</v>
       </c>
       <c r="D1139" t="n">
         <v>599</v>
@@ -30071,7 +30071,7 @@
         <v>9.1572</v>
       </c>
       <c r="C1140" t="n">
-        <v>0.3667059799938848</v>
+        <v>1.366705979993885</v>
       </c>
       <c r="D1140" t="n">
         <v>584</v>
@@ -30097,7 +30097,7 @@
         <v>9.1572</v>
       </c>
       <c r="C1141" t="n">
-        <v>0.3667059799938848</v>
+        <v>1.366705979993885</v>
       </c>
       <c r="D1141" t="n">
         <v>659</v>
@@ -30123,7 +30123,7 @@
         <v>9.1572</v>
       </c>
       <c r="C1142" t="n">
-        <v>0.3667059799938848</v>
+        <v>1.366705979993885</v>
       </c>
       <c r="D1142" t="n">
         <v>668</v>
@@ -30149,7 +30149,7 @@
         <v>9.1572</v>
       </c>
       <c r="C1143" t="n">
-        <v>0.3667059799938848</v>
+        <v>1.366705979993885</v>
       </c>
       <c r="D1143" t="n">
         <v>668</v>
@@ -49857,7 +49857,7 @@
         <v>20.8861</v>
       </c>
       <c r="C1901" t="n">
-        <v>0.3666696989864069</v>
+        <v>1.366669698986407</v>
       </c>
       <c r="D1901" t="n">
         <v>645</v>
@@ -49883,7 +49883,7 @@
         <v>20.8861</v>
       </c>
       <c r="C1902" t="n">
-        <v>0.3666696989864069</v>
+        <v>1.366669698986407</v>
       </c>
       <c r="D1902" t="n">
         <v>644</v>
@@ -49909,7 +49909,7 @@
         <v>20.8861</v>
       </c>
       <c r="C1903" t="n">
-        <v>0.3666696989864069</v>
+        <v>1.366669698986407</v>
       </c>
       <c r="D1903" t="n">
         <v>815</v>
